--- a/Hotels/Uasin Gishu/Details.xlsx
+++ b/Hotels/Uasin Gishu/Details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
   <si>
     <t>County</t>
   </si>
@@ -181,14 +181,127 @@
   </si>
   <si>
     <t>inner harbour</t>
+  </si>
+  <si>
+    <t>Eldoret Valley</t>
+  </si>
+  <si>
+    <t>prince palace</t>
+  </si>
+  <si>
+    <t>Naiberi campsite</t>
+  </si>
+  <si>
+    <t>keringet</t>
+  </si>
+  <si>
+    <t>Kaptagat Hotel</t>
+  </si>
+  <si>
+    <t>Jumbo</t>
+  </si>
+  <si>
+    <t>Jamii</t>
+  </si>
+  <si>
+    <t>mountain view</t>
+  </si>
+  <si>
+    <t>Sosiani View</t>
+  </si>
+  <si>
+    <t>New Miyako</t>
+  </si>
+  <si>
+    <t>grand pri</t>
+  </si>
+  <si>
+    <t>kokwet</t>
+  </si>
+  <si>
+    <t>outspan</t>
+  </si>
+  <si>
+    <t>chomazone</t>
+  </si>
+  <si>
+    <t>tweeters</t>
+  </si>
+  <si>
+    <t>saito</t>
+  </si>
+  <si>
+    <t>new kaburwo</t>
+  </si>
+  <si>
+    <t>poaplace</t>
+  </si>
+  <si>
+    <t>delegacy</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Eldoret</t>
+  </si>
+  <si>
+    <t>flyer sent</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>berry berry</t>
+  </si>
+  <si>
+    <t>Megs guest hse</t>
+  </si>
+  <si>
+    <t>Tiret resort</t>
+  </si>
+  <si>
+    <t>mahindi</t>
+  </si>
+  <si>
+    <t>Ndupawa</t>
+  </si>
+  <si>
+    <t>Mianmir</t>
+  </si>
+  <si>
+    <t>Sergoit view</t>
+  </si>
+  <si>
+    <t>Nomads</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Invoice Sent</t>
+  </si>
+  <si>
+    <t>intro msg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -216,8 +329,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,50 +633,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="F2">
         <v>722333923</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -570,7 +709,7 @@
         <v>708320169</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -578,263 +717,737 @@
         <v>532061490</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5">
+        <v>720752705</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>113037471</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="F7">
+        <v>721610807</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8">
+        <v>727575781</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>719025000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>532061081</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>703696692</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>722769551</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13">
+        <v>732212079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>705539014</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <v>111150000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>532032314</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>532033374</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>757780856</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="F14">
+      <c r="F21">
         <v>722551821</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="F15">
+      <c r="F22">
         <v>716716650</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>704578450</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24">
+        <v>722973476</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+      <c r="F25">
+        <v>722764065</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+      <c r="F28">
+        <v>532063281</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+      <c r="F29">
+        <v>712840300</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+      <c r="F32">
+        <v>714355555</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33">
+        <v>532032179</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+      <c r="F35">
+        <v>791188023</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39">
+        <v>722686512</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+      <c r="F44">
+        <v>791049906</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+      <c r="F46">
+        <v>716291935</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47">
+        <v>723309416</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+      <c r="F49">
+        <v>722255202</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+      <c r="F50">
+        <v>702404000</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51">
+        <v>715939294</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+      <c r="F52">
+        <v>716291935</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53">
+        <v>707394384</v>
+      </c>
+      <c r="H53" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+      <c r="F54">
+        <v>707641625</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+      <c r="F55">
+        <v>703826348</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+      <c r="F56">
+        <v>700091368</v>
+      </c>
+      <c r="H56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+      <c r="F57">
+        <v>715782514</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+      <c r="F58">
+        <v>704251244</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
+      <c r="F59">
+        <v>720830687</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
+      <c r="F60">
+        <v>202100160</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
+      <c r="F61">
+        <v>714045586</v>
+      </c>
+      <c r="H61" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62">
+        <v>721913993</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
+      <c r="F63">
+        <v>726071111</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
+      <c r="F64">
+        <v>726907658</v>
+      </c>
+      <c r="H64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
+      <c r="F66">
+        <v>714203501</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
+      <c r="F67">
+        <v>728680000</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
+      <c r="F69">
+        <v>721505655</v>
+      </c>
+      <c r="H69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
+      <c r="F71">
+        <v>722221975</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72">
+        <v>711245066</v>
+      </c>
+      <c r="H72" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
+      <c r="F75">
+        <v>704417407</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
+      <c r="F77">
+        <v>727504364</v>
+      </c>
+      <c r="H77" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
+      <c r="F78">
+        <v>532033095</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
+      <c r="F79">
+        <v>726295979</v>
+      </c>
+      <c r="H79" t="s">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Hotels/Uasin Gishu/Details.xlsx
+++ b/Hotels/Uasin Gishu/Details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="175">
   <si>
     <t>County</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Ndupawa</t>
   </si>
   <si>
-    <t>Mianmir</t>
-  </si>
-  <si>
     <t>Sergoit view</t>
   </si>
   <si>
@@ -286,13 +283,271 @@
   </si>
   <si>
     <t>intro msg</t>
+  </si>
+  <si>
+    <t>eldorand</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>Miarmir</t>
+  </si>
+  <si>
+    <t>Adventist guest</t>
+  </si>
+  <si>
+    <t>Gracemont</t>
+  </si>
+  <si>
+    <t>Les homes</t>
+  </si>
+  <si>
+    <t>Tatra suites</t>
+  </si>
+  <si>
+    <t>Merill</t>
+  </si>
+  <si>
+    <t>green pastures</t>
+  </si>
+  <si>
+    <t>Eldopalm</t>
+  </si>
+  <si>
+    <t>Ridge apartments</t>
+  </si>
+  <si>
+    <t>golden palace</t>
+  </si>
+  <si>
+    <t>bliss</t>
+  </si>
+  <si>
+    <t>Nest</t>
+  </si>
+  <si>
+    <t>Palace Devilla</t>
+  </si>
+  <si>
+    <t>Klique</t>
+  </si>
+  <si>
+    <t>Lux &amp; lush</t>
+  </si>
+  <si>
+    <t>Normads</t>
+  </si>
+  <si>
+    <t>Highlands inn</t>
+  </si>
+  <si>
+    <t>Reva</t>
+  </si>
+  <si>
+    <t>watercrest</t>
+  </si>
+  <si>
+    <t>Bubbles Inn</t>
+  </si>
+  <si>
+    <t>sysy's solutions</t>
+  </si>
+  <si>
+    <t>kings</t>
+  </si>
+  <si>
+    <t>elgon view guest</t>
+  </si>
+  <si>
+    <t>Elcerenity</t>
+  </si>
+  <si>
+    <t>El gracio</t>
+  </si>
+  <si>
+    <t>Newtonia</t>
+  </si>
+  <si>
+    <t>Moonshine</t>
+  </si>
+  <si>
+    <t>Kerio dreams</t>
+  </si>
+  <si>
+    <t>jacaranda</t>
+  </si>
+  <si>
+    <t>Toos nest</t>
+  </si>
+  <si>
+    <t>aya inn</t>
+  </si>
+  <si>
+    <t>Lidman</t>
+  </si>
+  <si>
+    <t>champions gate</t>
+  </si>
+  <si>
+    <t>damuku</t>
+  </si>
+  <si>
+    <t>saina place</t>
+  </si>
+  <si>
+    <t>palima</t>
+  </si>
+  <si>
+    <t>twenty four</t>
+  </si>
+  <si>
+    <t>0726 860293</t>
+  </si>
+  <si>
+    <t>0724 177000</t>
+  </si>
+  <si>
+    <t>0792 661746</t>
+  </si>
+  <si>
+    <t>0715 939294</t>
+  </si>
+  <si>
+    <t>0726 946945</t>
+  </si>
+  <si>
+    <t>053 2033374</t>
+  </si>
+  <si>
+    <t>0722 848853</t>
+  </si>
+  <si>
+    <t>0714 355555</t>
+  </si>
+  <si>
+    <t>0722 373228</t>
+  </si>
+  <si>
+    <t>0738 423291</t>
+  </si>
+  <si>
+    <t>0704 455516</t>
+  </si>
+  <si>
+    <t>0722 747967</t>
+  </si>
+  <si>
+    <t>0748 147501</t>
+  </si>
+  <si>
+    <t>new green pastures</t>
+  </si>
+  <si>
+    <t>0724 916892</t>
+  </si>
+  <si>
+    <t>053 2060992</t>
+  </si>
+  <si>
+    <t>0741 131777</t>
+  </si>
+  <si>
+    <t>Karuris</t>
+  </si>
+  <si>
+    <t>0794 239880</t>
+  </si>
+  <si>
+    <t>0114 872275</t>
+  </si>
+  <si>
+    <t>0722 268617</t>
+  </si>
+  <si>
+    <t>0711 141072</t>
+  </si>
+  <si>
+    <t>0758 672529</t>
+  </si>
+  <si>
+    <t>Serenity</t>
+  </si>
+  <si>
+    <t>0728 984114</t>
+  </si>
+  <si>
+    <t>0710 747898</t>
+  </si>
+  <si>
+    <t>0722 433748</t>
+  </si>
+  <si>
+    <t>0721 172454</t>
+  </si>
+  <si>
+    <t>0721 772866</t>
+  </si>
+  <si>
+    <t>0729 398915</t>
+  </si>
+  <si>
+    <t>0711 681888</t>
+  </si>
+  <si>
+    <t>Vine homes</t>
+  </si>
+  <si>
+    <t>0726 949554</t>
+  </si>
+  <si>
+    <t>0789 996646</t>
+  </si>
+  <si>
+    <t>Flora homes</t>
+  </si>
+  <si>
+    <t>0717 011968</t>
+  </si>
+  <si>
+    <t>0110 100151</t>
+  </si>
+  <si>
+    <t>jaybees</t>
+  </si>
+  <si>
+    <t>0717 616366</t>
+  </si>
+  <si>
+    <t>0718 852582</t>
+  </si>
+  <si>
+    <t>scented apart</t>
+  </si>
+  <si>
+    <t>volcano</t>
+  </si>
+  <si>
+    <t>0723 763085</t>
+  </si>
+  <si>
+    <t>cozy nest</t>
+  </si>
+  <si>
+    <t>skyline</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>devilla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +562,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF70757A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -329,9 +596,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,16 +905,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="L127" activeCellId="1" sqref="L127 L127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -672,233 +945,251 @@
         <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>722333923</v>
       </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>708320169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>532061490</v>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>720752705</v>
-      </c>
-      <c r="H5" t="s">
-        <v>77</v>
+        <v>708320169</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>113037471</v>
+        <v>532061490</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F7">
-        <v>721610807</v>
+        <v>720752705</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F8">
-        <v>727575781</v>
-      </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s">
-        <v>77</v>
+        <v>113037471</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>719025000</v>
+        <v>721610807</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>532061081</v>
+        <v>101</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>703696692</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
+        <v>110</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>722769551</v>
-      </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>732212079</v>
+        <v>727575781</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>705539014</v>
+        <v>719025000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>111150000</v>
+        <v>532061081</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F16">
-        <v>532032314</v>
+        <v>703696692</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>722769551</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <v>532033374</v>
+        <v>171</v>
+      </c>
+      <c r="F18" s="4">
+        <v>707070617</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19">
-        <v>757780856</v>
-      </c>
-      <c r="H19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" t="s">
-        <v>77</v>
+        <v>124</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>732212079</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21">
-        <v>722551821</v>
-      </c>
-      <c r="H21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
         <v>77</v>
@@ -906,58 +1197,31 @@
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>716716650</v>
-      </c>
-      <c r="H22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" t="s">
-        <v>77</v>
+        <v>705539014</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>704578450</v>
-      </c>
-      <c r="I23" t="s">
-        <v>77</v>
+        <v>111150000</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24">
-        <v>722973476</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25">
-        <v>722764065</v>
-      </c>
-      <c r="H25" t="s">
-        <v>77</v>
+        <v>115</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="I25" t="s">
         <v>77</v>
@@ -968,208 +1232,301 @@
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="F27">
+        <v>700136846</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F28">
-        <v>532063281</v>
+        <v>532032314</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29">
-        <v>712840300</v>
-      </c>
-      <c r="H29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>87</v>
+        <v>162</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32">
-        <v>714355555</v>
+        <v>107</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>532032179</v>
+        <v>532033374</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>79</v>
+        <v>119</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F35">
-        <v>791188023</v>
+        <v>757780856</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="F38">
+        <v>722551821</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39">
-        <v>722686512</v>
-      </c>
-      <c r="H39" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" t="s">
-        <v>77</v>
+        <v>100</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>716716650</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F41">
+        <v>724916892</v>
+      </c>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>64</v>
+        <v>165</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>71</v>
+        <v>145</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F44">
-        <v>791049906</v>
+        <v>704578450</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="F45">
+        <v>722973476</v>
+      </c>
+      <c r="H45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F46">
-        <v>716291935</v>
+        <v>722764065</v>
+      </c>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47">
-        <v>723309416</v>
-      </c>
-      <c r="I47" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49">
-        <v>722255202</v>
+        <v>118</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F50">
-        <v>702404000</v>
+        <v>532063281</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F51">
-        <v>715939294</v>
+        <v>712840300</v>
+      </c>
+      <c r="H51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52">
-        <v>716291935</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="F53">
-        <v>707394384</v>
-      </c>
-      <c r="H53" t="s">
-        <v>77</v>
+        <v>719759181</v>
       </c>
       <c r="I53" t="s">
         <v>77</v>
@@ -1180,157 +1537,145 @@
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F54">
-        <v>707641625</v>
+        <v>721496469</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F55">
-        <v>703826348</v>
+        <v>722239021</v>
+      </c>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56">
-        <v>700091368</v>
-      </c>
-      <c r="H56" t="s">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F57">
-        <v>715782514</v>
+        <v>5331520</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58">
-        <v>704251244</v>
+        <v>112</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I58" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59">
-        <v>720830687</v>
+        <v>104</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F60">
-        <v>202100160</v>
+        <v>714355555</v>
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F61">
-        <v>714045586</v>
-      </c>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s">
-        <v>77</v>
+        <v>532032179</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62">
-        <v>721913993</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F63">
-        <v>726071111</v>
+        <v>791188023</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F64">
-        <v>726907658</v>
-      </c>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-      <c r="I64" t="s">
-        <v>77</v>
-      </c>
-      <c r="J64" t="s">
-        <v>77</v>
+        <v>723487064</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>84</v>
+        <v>117</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66">
-        <v>714203501</v>
+        <v>173</v>
+      </c>
+      <c r="F66" s="3">
+        <v>722243079</v>
+      </c>
+      <c r="J66" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F67">
-        <v>728680000</v>
+        <v>726383300</v>
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>63</v>
+        <v>102</v>
+      </c>
+      <c r="F68">
+        <v>718082993</v>
+      </c>
+      <c r="J68" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69">
-        <v>721505655</v>
-      </c>
-      <c r="H69" t="s">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s">
-        <v>77</v>
+        <v>116</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="J69" t="s">
         <v>77</v>
@@ -1338,48 +1683,55 @@
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J70" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>46</v>
-      </c>
-      <c r="F71">
-        <v>722221975</v>
-      </c>
-      <c r="H71" t="s">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s">
-        <v>77</v>
+        <v>106</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F72">
-        <v>711245066</v>
+        <v>722686512</v>
       </c>
       <c r="H72" t="s">
         <v>77</v>
       </c>
       <c r="I72" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="F73">
+        <v>798981814</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="J74" t="s">
         <v>77</v>
@@ -1387,62 +1739,534 @@
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75">
-        <v>704417407</v>
+        <v>141</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="F77">
-        <v>727504364</v>
-      </c>
-      <c r="H77" t="s">
-        <v>77</v>
-      </c>
-      <c r="I77" t="s">
-        <v>77</v>
-      </c>
-      <c r="J77" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>50</v>
-      </c>
-      <c r="F78">
-        <v>532033095</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F79">
-        <v>726295979</v>
-      </c>
-      <c r="H79" t="s">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s">
-        <v>77</v>
+        <v>791049906</v>
       </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81">
+        <v>716291935</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82">
+        <v>723309416</v>
+      </c>
+      <c r="I82" t="s">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86">
+        <v>722255202</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87">
+        <v>702404000</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88">
+        <v>715939294</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89">
+        <v>716291935</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+      <c r="F90">
+        <v>707394384</v>
+      </c>
+      <c r="H90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91">
+        <v>707641625</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92">
+        <v>703826348</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93">
+        <v>700091368</v>
+      </c>
+      <c r="H93" t="s">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94">
+        <v>715782514</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97">
+        <v>704251244</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98">
+        <v>720830687</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99">
+        <v>202100160</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100">
+        <v>714045586</v>
+      </c>
+      <c r="H100" t="s">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>70</v>
+      </c>
+      <c r="F101">
+        <v>721913993</v>
+      </c>
+      <c r="J101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>41</v>
+      </c>
+      <c r="F102">
+        <v>726071111</v>
+      </c>
+      <c r="J102" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103">
+        <v>726907658</v>
+      </c>
+      <c r="H103" t="s">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C104" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>83</v>
+      </c>
+      <c r="F105">
+        <v>713412748</v>
+      </c>
+      <c r="J105" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>125</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108">
+        <v>714203501</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109">
+        <v>728680000</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>172</v>
+      </c>
+      <c r="F110">
+        <v>707070617</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112">
+        <v>721505655</v>
+      </c>
+      <c r="H112" t="s">
+        <v>77</v>
+      </c>
+      <c r="I112" t="s">
+        <v>77</v>
+      </c>
+      <c r="J112" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>111</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>80</v>
+      </c>
+      <c r="F115">
+        <v>743971107</v>
+      </c>
+      <c r="J115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>46</v>
+      </c>
+      <c r="F117">
+        <v>722221975</v>
+      </c>
+      <c r="H117" t="s">
+        <v>77</v>
+      </c>
+      <c r="I117" t="s">
+        <v>77</v>
+      </c>
+      <c r="J117" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>69</v>
+      </c>
+      <c r="F118">
+        <v>711245066</v>
+      </c>
+      <c r="H118" t="s">
+        <v>77</v>
+      </c>
+      <c r="I118" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="F119">
+        <v>710284452</v>
+      </c>
+      <c r="J119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>85</v>
+      </c>
+      <c r="F120">
+        <v>707641625</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121">
+        <v>711245066</v>
+      </c>
+      <c r="J121" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>47</v>
+      </c>
+      <c r="F122">
+        <v>704417407</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>49</v>
+      </c>
+      <c r="F124">
+        <v>727504364</v>
+      </c>
+      <c r="H124" t="s">
+        <v>77</v>
+      </c>
+      <c r="I124" t="s">
+        <v>77</v>
+      </c>
+      <c r="J124" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>109</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>50</v>
+      </c>
+      <c r="F126">
+        <v>532033095</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>51</v>
+      </c>
+      <c r="F127">
+        <v>726295979</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127" t="s">
+        <v>77</v>
+      </c>
+      <c r="J127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
         <v>52</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J128" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>159</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J131" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
